--- a/mbs-perturbation/chatty/svm/smote/chatty-svm-linear-results.xlsx
+++ b/mbs-perturbation/chatty/svm/smote/chatty-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C2" t="n">
-        <v>0.974025974025974</v>
+        <v>0.9567099567099567</v>
       </c>
       <c r="D2" t="n">
-        <v>0.802139037433155</v>
+        <v>0.8549323017408124</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8845096932053453</v>
+        <v>0.9389610389610389</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9041666666666667</v>
+        <v>0.9246861924686193</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9434782608695652</v>
+        <v>0.9608695652173913</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9234042553191489</v>
+        <v>0.9424307036247336</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9792772444946358</v>
+        <v>0.9768115942028985</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9288702928870293</v>
+        <v>0.9732142857142857</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9652173913043478</v>
+        <v>0.9478260869565217</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9466950959488272</v>
+        <v>0.960352422907489</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9881474480151229</v>
+        <v>0.9817958412098299</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.888</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9652173913043478</v>
+        <v>0.9434782608695652</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9249999999999999</v>
+        <v>0.9414316702819957</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9852551984877126</v>
+        <v>0.9935349716446125</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9867256637168141</v>
+        <v>0.9908256880733946</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9695652173913043</v>
+        <v>0.9391304347826087</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9780701754385964</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9904158790170132</v>
+        <v>0.9903402646502836</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8779161610177383</v>
+        <v>0.9201694756755023</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9635008469791078</v>
+        <v>0.9496028609072088</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9150617128279455</v>
+        <v>0.9326865625681491</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9655210926439659</v>
+        <v>0.9762887421337327</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chatty/svm/smote/chatty-svm-linear-results.xlsx
+++ b/mbs-perturbation/chatty/svm/smote/chatty-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.7638376383763837</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9567099567099567</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8549323017408124</v>
+        <v>0.8661087866108786</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9389610389610389</v>
+        <v>0.9422031772575251</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9246861924686193</v>
+        <v>0.9452054794520548</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9608695652173913</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9424307036247336</v>
+        <v>0.971830985915493</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9768115942028985</v>
+        <v>0.9966787439613527</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9732142857142857</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9478260869565217</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.960352422907489</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9817958412098299</v>
+        <v>0.9875859345968042</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9393939393939394</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9434782608695652</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9414316702819957</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9935349716446125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9908256880733946</v>
+        <v>0.9904306220095693</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9391304347826087</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9642857142857143</v>
+        <v>0.9951923076923077</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9903402646502836</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9201694756755023</v>
+        <v>0.9256090336818872</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9496028609072088</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9326865625681491</v>
+        <v>0.9592190086363285</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9762887421337327</v>
+        <v>0.9852935711631364</v>
       </c>
     </row>
   </sheetData>
